--- a/app/src/main/assets/sample_students.xlsx
+++ b/app/src/main/assets/sample_students.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
   <si>
     <t>Reg Number</t>
   </si>
@@ -54,22 +54,244 @@
     <t>8th A</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>abcdef</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>03120000000</t>
-  </si>
-  <si>
-    <t>abc</t>
+    <t>Mudassar Abbas</t>
+  </si>
+  <si>
+    <t>Arslan Zahoor</t>
+  </si>
+  <si>
+    <t>Muhammad Nauman</t>
+  </si>
+  <si>
+    <t>Ayan Amir</t>
+  </si>
+  <si>
+    <t>Muhammad Mudassar</t>
+  </si>
+  <si>
+    <t>M Sarfaraz Shakir</t>
+  </si>
+  <si>
+    <t>Muhammad Abu Bakr</t>
+  </si>
+  <si>
+    <t>Ali Haider</t>
+  </si>
+  <si>
+    <t>Aun Amir</t>
+  </si>
+  <si>
+    <t>Ali Zia</t>
+  </si>
+  <si>
+    <t>Muhammad Arslan</t>
+  </si>
+  <si>
+    <t>Allah Ditta</t>
+  </si>
+  <si>
+    <t>Gul Sher</t>
+  </si>
+  <si>
+    <t>Sharafat Ali</t>
+  </si>
+  <si>
+    <t>Suhail Shehzad</t>
+  </si>
+  <si>
+    <t>Umair Raza</t>
+  </si>
+  <si>
+    <t>Ali Shahzad</t>
+  </si>
+  <si>
+    <t>Suhail Ahmed</t>
+  </si>
+  <si>
+    <t>Muhammad Salman</t>
+  </si>
+  <si>
+    <t>Muhammad Waqas</t>
+  </si>
+  <si>
+    <t>Muhammad Yusuf</t>
+  </si>
+  <si>
+    <t>Zahoor Ahmed Sajid</t>
+  </si>
+  <si>
+    <t>Amanullah</t>
+  </si>
+  <si>
+    <t>Amir Raza</t>
+  </si>
+  <si>
+    <t>Tariq Mehmood</t>
+  </si>
+  <si>
+    <t>M Rab Nawaz Shakir</t>
+  </si>
+  <si>
+    <t>Naveed Akhtar</t>
+  </si>
+  <si>
+    <t>Irshad</t>
+  </si>
+  <si>
+    <t>Aamir Sajjad</t>
+  </si>
+  <si>
+    <t>Atta Muhammad</t>
+  </si>
+  <si>
+    <t>Ghulam Muhammad</t>
+  </si>
+  <si>
+    <t>Akbar</t>
+  </si>
+  <si>
+    <t>Muhammad Aslam</t>
+  </si>
+  <si>
+    <t>Gulzar Ahmed</t>
+  </si>
+  <si>
+    <t>Zwar Hussain</t>
+  </si>
+  <si>
+    <t>Allah Yar</t>
+  </si>
+  <si>
+    <t>Umar Hayat</t>
+  </si>
+  <si>
+    <t>Muhammad Idris</t>
+  </si>
+  <si>
+    <t>Mumtaz Hussain</t>
+  </si>
+  <si>
+    <t>Muhammad Khalid</t>
+  </si>
+  <si>
+    <t>0300-0000000</t>
+  </si>
+  <si>
+    <t>0300-0000001</t>
+  </si>
+  <si>
+    <t>0300-0000002</t>
+  </si>
+  <si>
+    <t>0300-0000003</t>
+  </si>
+  <si>
+    <t>0300-0000004</t>
+  </si>
+  <si>
+    <t>0300-0000005</t>
+  </si>
+  <si>
+    <t>0300-0000006</t>
+  </si>
+  <si>
+    <t>0300-0000007</t>
+  </si>
+  <si>
+    <t>0300-0000008</t>
+  </si>
+  <si>
+    <t>0300-0000009</t>
+  </si>
+  <si>
+    <t>0300-0000010</t>
+  </si>
+  <si>
+    <t>0300-0000011</t>
+  </si>
+  <si>
+    <t>0300-0000012</t>
+  </si>
+  <si>
+    <t>0300-0000013</t>
+  </si>
+  <si>
+    <t>0300-0000014</t>
+  </si>
+  <si>
+    <t>0300-0000015</t>
+  </si>
+  <si>
+    <t>0300-0000016</t>
+  </si>
+  <si>
+    <t>0300-0000017</t>
+  </si>
+  <si>
+    <t>0300-0000018</t>
+  </si>
+  <si>
+    <t>0300-0000019</t>
+  </si>
+  <si>
+    <t>Street 01</t>
+  </si>
+  <si>
+    <t>Street 02</t>
+  </si>
+  <si>
+    <t>Street 03</t>
+  </si>
+  <si>
+    <t>Street 04</t>
+  </si>
+  <si>
+    <t>Street 05</t>
+  </si>
+  <si>
+    <t>Street 06</t>
+  </si>
+  <si>
+    <t>Street 07</t>
+  </si>
+  <si>
+    <t>Street 08</t>
+  </si>
+  <si>
+    <t>Street 09</t>
+  </si>
+  <si>
+    <t>Street 10</t>
+  </si>
+  <si>
+    <t>Street 11</t>
+  </si>
+  <si>
+    <t>Street 12</t>
+  </si>
+  <si>
+    <t>Street 13</t>
+  </si>
+  <si>
+    <t>Street 14</t>
+  </si>
+  <si>
+    <t>Street 15</t>
+  </si>
+  <si>
+    <t>Street 16</t>
+  </si>
+  <si>
+    <t>Street 17</t>
+  </si>
+  <si>
+    <t>Street 18</t>
+  </si>
+  <si>
+    <t>Street 19</t>
+  </si>
+  <si>
+    <t>Street 20</t>
   </si>
 </sst>
 </file>
@@ -431,7 +653,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,212 +702,706 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42005</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42006</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43832</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42007</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43833</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>36557</v>
-      </c>
-      <c r="G2" s="2">
-        <v>36526</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42008</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43834</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42009</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43835</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="J7" s="4"/>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>42010</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43836</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="J8" s="4"/>
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42011</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43837</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="J9" s="4"/>
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>42012</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43838</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="J10" s="4"/>
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42013</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43839</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="J11" s="4"/>
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>42014</v>
+      </c>
+      <c r="G11" s="2">
+        <v>43840</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="J12" s="4"/>
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42015</v>
+      </c>
+      <c r="G12" s="2">
+        <v>43841</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="J13" s="4"/>
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>42016</v>
+      </c>
+      <c r="G13" s="2">
+        <v>43842</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="J14" s="4"/>
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>42017</v>
+      </c>
+      <c r="G14" s="2">
+        <v>43843</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="J15" s="4"/>
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>42018</v>
+      </c>
+      <c r="G15" s="2">
+        <v>43844</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>42019</v>
+      </c>
+      <c r="G16" s="2">
+        <v>43845</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1016</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42020</v>
+      </c>
+      <c r="G17" s="2">
+        <v>43846</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>42021</v>
+      </c>
+      <c r="G18" s="2">
+        <v>43847</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1018</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42022</v>
+      </c>
+      <c r="G19" s="2">
+        <v>43848</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1019</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>42023</v>
+      </c>
+      <c r="G20" s="2">
+        <v>43849</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1020</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>42024</v>
+      </c>
+      <c r="G21" s="2">
+        <v>43850</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E24" s="3"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E27" s="3"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
